--- a/IPC2024_base2010/imputacion/sinrecodificar_5_2024.xlsx
+++ b/IPC2024_base2010/imputacion/sinrecodificar_5_2024.xlsx
@@ -1414,7 +1414,7 @@
     <t>Carne de pollo criollo o de patio</t>
   </si>
   <si>
-    <t>Alquiler de vehículo por día, kilometraje ilimitado</t>
+    <t>Alquiler de vehículo por día (kilometraje)</t>
   </si>
   <si>
     <t>Cursos de enfermería</t>
